--- a/doc/log/王秋豪.xlsx
+++ b/doc/log/王秋豪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8295"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>姓名：王秋豪</t>
   </si>
@@ -22,40 +22,286 @@
     <t>工作时间</t>
   </si>
   <si>
-    <t>工作内容</t>
+    <t xml:space="preserve">                                                                                                                工作内容</t>
   </si>
   <si>
     <t>2019/4/1/9:00~10:00</t>
   </si>
   <si>
-    <t>进行项目的需求分析</t>
+    <t xml:space="preserve">                                                                                        进行项目的需求分析</t>
   </si>
   <si>
     <t>2019/4/9/12:00~14:00</t>
   </si>
   <si>
-    <t>MySQL数据库的基本命令的学习和操作</t>
+    <t xml:space="preserve">                                                 MySQL数据库的基本命令的学习和操作</t>
   </si>
   <si>
     <t>2019/4/10/20：00~22：00</t>
   </si>
   <si>
-    <t>MySQL数据索引的学习</t>
-  </si>
-  <si>
-    <t>JDBC的基本概念学习</t>
+    <t xml:space="preserve">                                                                                    MySQL数据索引的学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        JDBC的基本概念学习</t>
   </si>
   <si>
     <t>2019/4/11/20：00~22：00</t>
   </si>
   <si>
-    <t>MYSQL,JDBC的复习</t>
+    <t xml:space="preserve">                                                                                           MYSQL,JDBC的复习</t>
   </si>
   <si>
     <t>2019/4/13/20：00~22：00</t>
   </si>
   <si>
-    <t>log4j的基本学习</t>
+    <t xml:space="preserve">                                                                                                  log4j的基本学习</t>
+  </si>
+  <si>
+    <t>2019/4/13 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                学习AOP</t>
+  </si>
+  <si>
+    <t>2019/4/14 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             学习mybatis映射文件多参数处理</t>
+  </si>
+  <si>
+    <t>2019/4/15 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                          mybatis结果返回集</t>
+  </si>
+  <si>
+    <t>2019/04/16/18:00 -22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                          学习spring-data-jpa</t>
+  </si>
+  <si>
+    <t>2019/04/17/21:00 -23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                          spring-data-jpa完结</t>
+  </si>
+  <si>
+    <t>2019/04/18/15:00 - 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      配置日志输出</t>
+  </si>
+  <si>
+    <t>2019/4/20 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      了解http协议</t>
+  </si>
+  <si>
+    <t>2019/4/21 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             引入mybatis-3和mybatis-spring的依赖包</t>
+  </si>
+  <si>
+    <t>2019/4/22 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         配置IDE的spring应用上下文</t>
+  </si>
+  <si>
+    <t>2019/4/25 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        学习maven常用命令</t>
+  </si>
+  <si>
+    <t>2019/4/27 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Spring事务管理</t>
+  </si>
+  <si>
+    <t>2019/4/29 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         使用xml文件方式映射mapper</t>
+  </si>
+  <si>
+    <t>2019/5/1 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                         学习SpringMVC原理</t>
+  </si>
+  <si>
+    <t>2019/5/2 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            编写dao层实体类account与接口accountDao</t>
+  </si>
+  <si>
+    <t>2019/5/5 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       springMVC环境搭建及案例入门</t>
+  </si>
+  <si>
+    <t>2019/5/6 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                   编写dao层实体测试IndentTest</t>
+  </si>
+  <si>
+    <t>2019/5/8 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              HTTP请求方法，协议的八种类型</t>
+  </si>
+  <si>
+    <t>2019/5/10 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     web层基础配置</t>
+  </si>
+  <si>
+    <t>2019/5/13 20:30-22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            配置spring的应用上下文</t>
+  </si>
+  <si>
+    <t>2019/5/14 20:30-22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   web层的搭建，基础整合spring-MVC</t>
+  </si>
+  <si>
+    <t>2019/5/15 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                    项目运行出现错误，重构项目</t>
+  </si>
+  <si>
+    <t>2019/5/17 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   学习jquery-ajax</t>
+  </si>
+  <si>
+    <t>2019/5/19 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                写account的测试</t>
+  </si>
+  <si>
+    <t>2019/5/22 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                               对测试的调试，处理遇到的问题</t>
+  </si>
+  <si>
+    <t>2019/5/24 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   web层controller</t>
+  </si>
+  <si>
+    <t>2019/5/26 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 完善service层测试</t>
+  </si>
+  <si>
+    <t>2019/5/30 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                              web层的controller的书写</t>
+  </si>
+  <si>
+    <t>2019/6/1 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               小组讨论，完善web层</t>
+  </si>
+  <si>
+    <t>2019/6/2 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      完善项目计划</t>
+  </si>
+  <si>
+    <t>2019/6/3 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                     测试web层是否返回json数据</t>
+  </si>
+  <si>
+    <t>2019/6/5 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      实现json展示</t>
+  </si>
+  <si>
+    <t>2019/6/6 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   写web层dish的js</t>
+  </si>
+  <si>
+    <t>2019/6/7 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       初步了解Vue</t>
+  </si>
+  <si>
+    <t>2019/6/9 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Vue.js模板起步</t>
+  </si>
+  <si>
+    <t>2019/6/10 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             account模块一对多关系</t>
+  </si>
+  <si>
+    <t>2019/6/11 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          接口测试</t>
+  </si>
+  <si>
+    <t>2019/6/13 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             调用接口实现增加删除修改功能</t>
+  </si>
+  <si>
+    <t>2019/6/14 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          完善接口</t>
+  </si>
+  <si>
+    <t>2019/6/16 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                client更新编辑功能</t>
+  </si>
+  <si>
+    <t>2019/6/17 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                  测试功能的实现</t>
+  </si>
+  <si>
+    <t>2019/6/18 20:30-22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      添加测试数据</t>
   </si>
 </sst>
 </file>
@@ -63,12 +309,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,58 +324,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +388,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -151,71 +454,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +493,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,31 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,109 +649,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,39 +684,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,11 +713,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +765,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,148 +798,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -997,13 +1278,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.5047619047619" customWidth="1"/>
     <col min="2" max="2" width="23.5714285714286" customWidth="1"/>
@@ -1069,6 +1350,334 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/王秋豪.xlsx
+++ b/doc/log/王秋豪.xlsx
@@ -178,127 +178,127 @@
     <t xml:space="preserve">                   web层的搭建，基础整合spring-MVC</t>
   </si>
   <si>
-    <t>2019/5/15 20:30-22:31</t>
+    <t>2019/5/15 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                    项目运行出现错误，重构项目</t>
   </si>
   <si>
-    <t>2019/5/17 20:30-22:31</t>
+    <t>2019/5/17 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                   学习jquery-ajax</t>
   </si>
   <si>
-    <t>2019/5/19 20:30-22:31</t>
+    <t>2019/5/19 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                写account的测试</t>
   </si>
   <si>
-    <t>2019/5/22 20:30-22:31</t>
+    <t>2019/5/22 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                               对测试的调试，处理遇到的问题</t>
   </si>
   <si>
-    <t>2019/5/24 20:30-22:31</t>
+    <t>2019/5/24 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                   web层controller</t>
   </si>
   <si>
-    <t>2019/5/26 20:30-22:31</t>
+    <t>2019/5/26 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                 完善service层测试</t>
   </si>
   <si>
-    <t>2019/5/30 20:30-22:31</t>
+    <t>2019/5/30 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                              web层的controller的书写</t>
   </si>
   <si>
-    <t>2019/6/1 20:30-22:31</t>
+    <t>2019/6/1 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                               小组讨论，完善web层</t>
   </si>
   <si>
-    <t>2019/6/2 20:30-22:31</t>
+    <t>2019/6/2 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                      完善项目计划</t>
   </si>
   <si>
-    <t>2019/6/3 20:30-22:31</t>
+    <t>2019/6/3 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                     测试web层是否返回json数据</t>
   </si>
   <si>
-    <t>2019/6/5 20:30-22:31</t>
+    <t>2019/6/5 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                      实现json展示</t>
   </si>
   <si>
-    <t>2019/6/6 20:30-22:31</t>
+    <t>2019/6/6 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                   写web层dish的js</t>
   </si>
   <si>
-    <t>2019/6/7 20:30-22:31</t>
+    <t>2019/6/7 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                       初步了解Vue</t>
   </si>
   <si>
-    <t>2019/6/9 20:30-22:31</t>
+    <t>2019/6/9 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                    Vue.js模板起步</t>
   </si>
   <si>
-    <t>2019/6/10 20:30-22:31</t>
+    <t>2019/6/10 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                             account模块一对多关系</t>
   </si>
   <si>
-    <t>2019/6/11 20:30-22:31</t>
+    <t>2019/6/11 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                          接口测试</t>
   </si>
   <si>
-    <t>2019/6/13 20:30-22:31</t>
+    <t>2019/6/13 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                             调用接口实现增加删除修改功能</t>
   </si>
   <si>
-    <t>2019/6/14 20:30-22:31</t>
+    <t>2019/6/14 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                          完善接口</t>
   </si>
   <si>
-    <t>2019/6/16 20:30-22:31</t>
+    <t>2019/6/16 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                client更新编辑功能</t>
   </si>
   <si>
-    <t>2019/6/17 20:30-22:31</t>
+    <t>2019/6/17 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                  测试功能的实现</t>
   </si>
   <si>
-    <t>2019/6/18 20:30-22:31</t>
+    <t>2019/6/18 20:30-22:30</t>
   </si>
   <si>
     <t xml:space="preserve">                                      添加测试数据</t>
@@ -309,19 +309,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,9 +328,140 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -347,142 +471,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -493,19 +481,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,157 +613,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,21 +680,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +724,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -773,23 +772,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,139 +786,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,22 +929,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
